--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwe/Documents/Economics/Teaching/MACSS/MACS30000/Fall2018/Assignments/A4/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFAB015-092A-7748-BEF6-F563EAB7DF11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14420" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
+    <workbookView xWindow="84" yWindow="720" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -44,15 +38,51 @@
   <si>
     <t>Sample ID</t>
   </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertarian </t>
+  </si>
+  <si>
+    <t>Not in Service</t>
+  </si>
+  <si>
+    <t>Cut Call</t>
+  </si>
+  <si>
+    <t>Libertarian</t>
+  </si>
+  <si>
+    <t>Democrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhn wolf, styart guarantee </t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Invalid Number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;___&quot;\-000\-0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,13 +125,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,33 +441,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
-  <dimension ref="A1:E204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BV204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.296875" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="7" max="74" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -444,1611 +484,4861 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>4310454</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>6920338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>6918070</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>3605305</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>8892229</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>3421805</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>4172517</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>8613530</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" s="4" customFormat="1">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>5087341</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+    </row>
+    <row r="13" spans="1:74" s="4" customFormat="1">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2438163</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+    </row>
+    <row r="14" spans="1:74">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>4037270</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>5652672</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>7393216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>7229394</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>5151305</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>4877748</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>4265519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>6516979</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>8565245</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>8407755</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" s="5" customFormat="1">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>2709233</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>9181750</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="5"/>
+    </row>
+    <row r="26" spans="1:74" s="5" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4860050</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" s="4" customFormat="1">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>8194429</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="5"/>
+    </row>
+    <row r="28" spans="1:74">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>7497881</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>6978928</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>4670541</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:74">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>8642160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" s="4" customFormat="1">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>3109656</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="5"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="5"/>
+      <c r="BP32" s="5"/>
+      <c r="BQ32" s="5"/>
+      <c r="BR32" s="5"/>
+      <c r="BS32" s="5"/>
+      <c r="BT32" s="5"/>
+      <c r="BU32" s="5"/>
+      <c r="BV32" s="5"/>
+    </row>
+    <row r="33" spans="1:74">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>2536524</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:74">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>4159593</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:74" s="4" customFormat="1">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>9156659</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
+      <c r="BQ35" s="5"/>
+      <c r="BR35" s="5"/>
+      <c r="BS35" s="5"/>
+      <c r="BT35" s="5"/>
+      <c r="BU35" s="5"/>
+      <c r="BV35" s="5"/>
+    </row>
+    <row r="36" spans="1:74" s="4" customFormat="1">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>2630658</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="5"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="5"/>
+    </row>
+    <row r="37" spans="1:74" s="4" customFormat="1">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>3103116</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="5"/>
+      <c r="BQ37" s="5"/>
+      <c r="BR37" s="5"/>
+      <c r="BS37" s="5"/>
+      <c r="BT37" s="5"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="5"/>
+    </row>
+    <row r="38" spans="1:74">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>3526990</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:74" s="4" customFormat="1">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>8903095</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
+    </row>
+    <row r="40" spans="1:74">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>8761170</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:74" s="4" customFormat="1">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>9173160</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5">
+        <v>71</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+      <c r="BQ41" s="5"/>
+      <c r="BR41" s="5"/>
+      <c r="BS41" s="5"/>
+      <c r="BT41" s="5"/>
+      <c r="BU41" s="5"/>
+      <c r="BV41" s="5"/>
+    </row>
+    <row r="42" spans="1:74">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>8450958</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:74">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>5849527</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:74">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>9874505</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:74" s="4" customFormat="1">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>5080490</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+    </row>
+    <row r="46" spans="1:74">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>7459046</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:74">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>4455876</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:74">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>9744213</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:74">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>3099226</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:74">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>7441722</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:74">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>6900989</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:74">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>8572189</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:74">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>7154223</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:74">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>6231491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:74">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>3660183</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:74" s="4" customFormat="1">
+      <c r="A56" s="4">
         <v>53</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>5014048</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+      <c r="BM56" s="5"/>
+      <c r="BN56" s="5"/>
+      <c r="BO56" s="5"/>
+      <c r="BP56" s="5"/>
+      <c r="BQ56" s="5"/>
+      <c r="BR56" s="5"/>
+      <c r="BS56" s="5"/>
+      <c r="BT56" s="5"/>
+      <c r="BU56" s="5"/>
+      <c r="BV56" s="5"/>
+    </row>
+    <row r="57" spans="1:74">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>3395385</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:74">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>5220200</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:74">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>4510321</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:74" s="4" customFormat="1">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>8189798</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="5"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="5"/>
+      <c r="BM60" s="5"/>
+      <c r="BN60" s="5"/>
+      <c r="BO60" s="5"/>
+      <c r="BP60" s="5"/>
+      <c r="BQ60" s="5"/>
+      <c r="BR60" s="5"/>
+      <c r="BS60" s="5"/>
+      <c r="BT60" s="5"/>
+      <c r="BU60" s="5"/>
+      <c r="BV60" s="5"/>
+    </row>
+    <row r="61" spans="1:74">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>2687999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:74">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>9551750</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:74">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>3894955</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:74">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>3018578</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:74">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>2758398</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:74">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>3891447</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:74" s="4" customFormat="1">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>2661373</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+      <c r="BT67" s="5"/>
+      <c r="BU67" s="5"/>
+      <c r="BV67" s="5"/>
+    </row>
+    <row r="68" spans="1:74" s="4" customFormat="1">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>6190466</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="5">
+        <v>50</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="5"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="5"/>
+      <c r="BI68" s="5"/>
+      <c r="BJ68" s="5"/>
+      <c r="BK68" s="5"/>
+      <c r="BL68" s="5"/>
+      <c r="BM68" s="5"/>
+      <c r="BN68" s="5"/>
+      <c r="BO68" s="5"/>
+      <c r="BP68" s="5"/>
+      <c r="BQ68" s="5"/>
+      <c r="BR68" s="5"/>
+      <c r="BS68" s="5"/>
+      <c r="BT68" s="5"/>
+      <c r="BU68" s="5"/>
+      <c r="BV68" s="5"/>
+    </row>
+    <row r="69" spans="1:74">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>4491947</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:74">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>3008542</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:74" s="4" customFormat="1">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>9177932</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BI71" s="5"/>
+      <c r="BJ71" s="5"/>
+      <c r="BK71" s="5"/>
+      <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
+      <c r="BN71" s="5"/>
+      <c r="BO71" s="5"/>
+      <c r="BP71" s="5"/>
+      <c r="BQ71" s="5"/>
+      <c r="BR71" s="5"/>
+      <c r="BS71" s="5"/>
+      <c r="BT71" s="5"/>
+      <c r="BU71" s="5"/>
+      <c r="BV71" s="5"/>
+    </row>
+    <row r="72" spans="1:74">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>5434580</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:74">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>5588372</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:74" ht="16.8" customHeight="1">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>6528460</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:74" s="4" customFormat="1">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>5080362</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+      <c r="BG75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BI75" s="5"/>
+      <c r="BJ75" s="5"/>
+      <c r="BK75" s="5"/>
+      <c r="BL75" s="5"/>
+      <c r="BM75" s="5"/>
+      <c r="BN75" s="5"/>
+      <c r="BO75" s="5"/>
+      <c r="BP75" s="5"/>
+      <c r="BQ75" s="5"/>
+      <c r="BR75" s="5"/>
+      <c r="BS75" s="5"/>
+      <c r="BT75" s="5"/>
+      <c r="BU75" s="5"/>
+      <c r="BV75" s="5"/>
+    </row>
+    <row r="76" spans="1:74" s="4" customFormat="1">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="6">
         <v>5807911</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="5"/>
+      <c r="BG76" s="5"/>
+      <c r="BH76" s="5"/>
+      <c r="BI76" s="5"/>
+      <c r="BJ76" s="5"/>
+      <c r="BK76" s="5"/>
+      <c r="BL76" s="5"/>
+      <c r="BM76" s="5"/>
+      <c r="BN76" s="5"/>
+      <c r="BO76" s="5"/>
+      <c r="BP76" s="5"/>
+      <c r="BQ76" s="5"/>
+      <c r="BR76" s="5"/>
+      <c r="BS76" s="5"/>
+      <c r="BT76" s="5"/>
+      <c r="BU76" s="5"/>
+      <c r="BV76" s="5"/>
+    </row>
+    <row r="77" spans="1:74">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="6">
         <v>3656122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:74">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>8509733</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:74">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>6573086</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:74">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>7515206</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:74">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>3733268</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:74">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>6948908</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:74">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>4597991</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:74" s="4" customFormat="1">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>5010584</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="5"/>
+      <c r="AQ84" s="5"/>
+      <c r="AR84" s="5"/>
+      <c r="AS84" s="5"/>
+      <c r="AT84" s="5"/>
+      <c r="AU84" s="5"/>
+      <c r="AV84" s="5"/>
+      <c r="AW84" s="5"/>
+      <c r="AX84" s="5"/>
+      <c r="AY84" s="5"/>
+      <c r="AZ84" s="5"/>
+      <c r="BA84" s="5"/>
+      <c r="BB84" s="5"/>
+      <c r="BC84" s="5"/>
+      <c r="BD84" s="5"/>
+      <c r="BE84" s="5"/>
+      <c r="BF84" s="5"/>
+      <c r="BG84" s="5"/>
+      <c r="BH84" s="5"/>
+      <c r="BI84" s="5"/>
+      <c r="BJ84" s="5"/>
+      <c r="BK84" s="5"/>
+      <c r="BL84" s="5"/>
+      <c r="BM84" s="5"/>
+      <c r="BN84" s="5"/>
+      <c r="BO84" s="5"/>
+      <c r="BP84" s="5"/>
+      <c r="BQ84" s="5"/>
+      <c r="BR84" s="5"/>
+      <c r="BS84" s="5"/>
+      <c r="BT84" s="5"/>
+      <c r="BU84" s="5"/>
+      <c r="BV84" s="5"/>
+    </row>
+    <row r="85" spans="1:74">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>7150555</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:74">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>2318224</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:74" s="4" customFormat="1">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="6">
         <v>5894130</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="5"/>
+      <c r="AS87" s="5"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="5"/>
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="5"/>
+      <c r="AX87" s="5"/>
+      <c r="AY87" s="5"/>
+      <c r="AZ87" s="5"/>
+      <c r="BA87" s="5"/>
+      <c r="BB87" s="5"/>
+      <c r="BC87" s="5"/>
+      <c r="BD87" s="5"/>
+      <c r="BE87" s="5"/>
+      <c r="BF87" s="5"/>
+      <c r="BG87" s="5"/>
+      <c r="BH87" s="5"/>
+      <c r="BI87" s="5"/>
+      <c r="BJ87" s="5"/>
+      <c r="BK87" s="5"/>
+      <c r="BL87" s="5"/>
+      <c r="BM87" s="5"/>
+      <c r="BN87" s="5"/>
+      <c r="BO87" s="5"/>
+      <c r="BP87" s="5"/>
+      <c r="BQ87" s="5"/>
+      <c r="BR87" s="5"/>
+      <c r="BS87" s="5"/>
+      <c r="BT87" s="5"/>
+      <c r="BU87" s="5"/>
+      <c r="BV87" s="5"/>
+    </row>
+    <row r="88" spans="1:74" s="4" customFormat="1">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>3241426</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="5"/>
+      <c r="BA88" s="5"/>
+      <c r="BB88" s="5"/>
+      <c r="BC88" s="5"/>
+      <c r="BD88" s="5"/>
+      <c r="BE88" s="5"/>
+      <c r="BF88" s="5"/>
+      <c r="BG88" s="5"/>
+      <c r="BH88" s="5"/>
+      <c r="BI88" s="5"/>
+      <c r="BJ88" s="5"/>
+      <c r="BK88" s="5"/>
+      <c r="BL88" s="5"/>
+      <c r="BM88" s="5"/>
+      <c r="BN88" s="5"/>
+      <c r="BO88" s="5"/>
+      <c r="BP88" s="5"/>
+      <c r="BQ88" s="5"/>
+      <c r="BR88" s="5"/>
+      <c r="BS88" s="5"/>
+      <c r="BT88" s="5"/>
+      <c r="BU88" s="5"/>
+      <c r="BV88" s="5"/>
+    </row>
+    <row r="89" spans="1:74">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>9364559</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:74">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>9980970</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:74">
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>4325683</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:74">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="6">
         <v>3963502</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:74">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="6">
         <v>7446604</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:74" s="4" customFormat="1">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>8970051</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="5"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="5"/>
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="5"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="5"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="5"/>
+      <c r="BF94" s="5"/>
+      <c r="BG94" s="5"/>
+      <c r="BH94" s="5"/>
+      <c r="BI94" s="5"/>
+      <c r="BJ94" s="5"/>
+      <c r="BK94" s="5"/>
+      <c r="BL94" s="5"/>
+      <c r="BM94" s="5"/>
+      <c r="BN94" s="5"/>
+      <c r="BO94" s="5"/>
+      <c r="BP94" s="5"/>
+      <c r="BQ94" s="5"/>
+      <c r="BR94" s="5"/>
+      <c r="BS94" s="5"/>
+      <c r="BT94" s="5"/>
+      <c r="BU94" s="5"/>
+      <c r="BV94" s="5"/>
+    </row>
+    <row r="95" spans="1:74">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="6">
         <v>6571851</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:74">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>2818481</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:74">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>9592068</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:74">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>4182313</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:74">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="6">
         <v>3881508</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:74">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="6">
         <v>3347696</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:74">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="6">
         <v>2892356</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:74">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>8330415</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:74">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="6">
         <v>4819145</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:74" s="4" customFormat="1">
+      <c r="A104" s="4">
         <v>101</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="6">
         <v>8775030</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
+      <c r="AO104" s="5"/>
+      <c r="AP104" s="5"/>
+      <c r="AQ104" s="5"/>
+      <c r="AR104" s="5"/>
+      <c r="AS104" s="5"/>
+      <c r="AT104" s="5"/>
+      <c r="AU104" s="5"/>
+      <c r="AV104" s="5"/>
+      <c r="AW104" s="5"/>
+      <c r="AX104" s="5"/>
+      <c r="AY104" s="5"/>
+      <c r="AZ104" s="5"/>
+      <c r="BA104" s="5"/>
+      <c r="BB104" s="5"/>
+      <c r="BC104" s="5"/>
+      <c r="BD104" s="5"/>
+      <c r="BE104" s="5"/>
+      <c r="BF104" s="5"/>
+      <c r="BG104" s="5"/>
+      <c r="BH104" s="5"/>
+      <c r="BI104" s="5"/>
+      <c r="BJ104" s="5"/>
+      <c r="BK104" s="5"/>
+      <c r="BL104" s="5"/>
+      <c r="BM104" s="5"/>
+      <c r="BN104" s="5"/>
+      <c r="BO104" s="5"/>
+      <c r="BP104" s="5"/>
+      <c r="BQ104" s="5"/>
+      <c r="BR104" s="5"/>
+      <c r="BS104" s="5"/>
+      <c r="BT104" s="5"/>
+      <c r="BU104" s="5"/>
+      <c r="BV104" s="5"/>
+    </row>
+    <row r="105" spans="1:74">
+      <c r="A105" s="4">
         <v>102</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="6">
         <v>7091051</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:74">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="6">
         <v>8891439</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:74">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="6">
         <v>7315774</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:74">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="6">
         <v>3718721</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:74">
+      <c r="A109" s="4">
         <v>106</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="6">
         <v>5087908</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:74">
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="6">
         <v>2247311</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:74">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="6">
         <v>8388750</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:74">
+      <c r="A112" s="4">
         <v>109</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="6">
         <v>8192717</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="5">
+        <v>0</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:74">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="6">
         <v>7432052</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:74">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="6">
         <v>7083813</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="5">
+        <v>0</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:74">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="6">
         <v>2976684</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:74">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="6">
         <v>8661836</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:74">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="6">
         <v>9359749</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:74">
+      <c r="A118" s="4">
         <v>115</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="6">
         <v>7606307</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="5">
+        <v>0</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:74">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="6">
         <v>9825275</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:74">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="6">
         <v>2312219</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:74">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="6">
         <v>5268099</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:74" s="4" customFormat="1">
+      <c r="A122" s="4">
         <v>119</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="6">
         <v>2430785</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="C122" s="5">
+        <v>0</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+      <c r="AJ122" s="5"/>
+      <c r="AK122" s="5"/>
+      <c r="AL122" s="5"/>
+      <c r="AM122" s="5"/>
+      <c r="AN122" s="5"/>
+      <c r="AO122" s="5"/>
+      <c r="AP122" s="5"/>
+      <c r="AQ122" s="5"/>
+      <c r="AR122" s="5"/>
+      <c r="AS122" s="5"/>
+      <c r="AT122" s="5"/>
+      <c r="AU122" s="5"/>
+      <c r="AV122" s="5"/>
+      <c r="AW122" s="5"/>
+      <c r="AX122" s="5"/>
+      <c r="AY122" s="5"/>
+      <c r="AZ122" s="5"/>
+      <c r="BA122" s="5"/>
+      <c r="BB122" s="5"/>
+      <c r="BC122" s="5"/>
+      <c r="BD122" s="5"/>
+      <c r="BE122" s="5"/>
+      <c r="BF122" s="5"/>
+      <c r="BG122" s="5"/>
+      <c r="BH122" s="5"/>
+      <c r="BI122" s="5"/>
+      <c r="BJ122" s="5"/>
+      <c r="BK122" s="5"/>
+      <c r="BL122" s="5"/>
+      <c r="BM122" s="5"/>
+      <c r="BN122" s="5"/>
+      <c r="BO122" s="5"/>
+      <c r="BP122" s="5"/>
+      <c r="BQ122" s="5"/>
+      <c r="BR122" s="5"/>
+      <c r="BS122" s="5"/>
+      <c r="BT122" s="5"/>
+      <c r="BU122" s="5"/>
+      <c r="BV122" s="5"/>
+    </row>
+    <row r="123" spans="1:74">
+      <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="6">
         <v>4616118</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="5">
+        <v>0</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:74">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="6">
         <v>6914711</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="5">
+        <v>0</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:74">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="6">
         <v>6791019</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:74">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="6">
         <v>4332585</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="5">
+        <v>0</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:74">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="6">
         <v>6715089</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="C127" s="5">
+        <v>0</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:74">
+      <c r="A128" s="4">
         <v>125</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="6">
         <v>9087058</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="5">
+        <v>0</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="6">
         <v>5511333</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="6">
         <v>7842348</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="5">
+        <v>0</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="6">
         <v>6985596</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="5">
+        <v>0</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="6">
         <v>6915150</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="5">
+        <v>0</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="6">
         <v>7551254</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="4">
         <v>131</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="6">
         <v>9173893</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="5">
+        <v>0</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="6">
         <v>2568202</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="C135" s="5">
+        <v>0</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="4">
         <v>133</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="6">
         <v>4343802</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="5">
+        <v>0</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="6">
         <v>8465251</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="5">
+        <v>0</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="6">
         <v>5902748</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="6">
         <v>5457011</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="6">
         <v>3443484</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="4">
         <v>138</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="6">
         <v>5915981</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="6">
         <v>7778407</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="5">
+        <v>0</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="6">
         <v>2217074</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="5">
+        <v>0</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="6">
         <v>2737031</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="5">
+        <v>0</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="6">
         <v>8494794</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="5">
+        <v>0</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="6">
         <v>6628639</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="5">
+        <v>0</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="6">
         <v>5618680</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="5">
+        <v>0</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="6">
         <v>7888364</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="5">
+        <v>0</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="6">
         <v>8024308</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="C149" s="5">
+        <v>0</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="4">
         <v>147</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="6">
         <v>5051667</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="5">
+        <v>0</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="6">
         <v>4159001</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="C151" s="5">
+        <v>0</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="4">
         <v>149</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="6">
         <v>7676347</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="C152" s="5">
+        <v>0</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="4">
         <v>150</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="6">
         <v>5134416</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="5">
+        <v>0</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="6">
         <v>2267488</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="5">
+        <v>0</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="6">
         <v>6442587</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="C155" s="5">
+        <v>0</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="4">
         <v>153</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="6">
         <v>6699768</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="5">
+        <v>0</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="6">
         <v>4874074</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="5">
+        <v>0</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="6">
         <v>7866924</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="5">
+        <v>0</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="6">
         <v>9549022</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="C159" s="5">
+        <v>0</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="4">
         <v>157</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="6">
         <v>5026225</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="5">
+        <v>0</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="6">
         <v>4659414</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="5">
+        <v>0</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="6">
         <v>5419835</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="5">
+        <v>0</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="6">
         <v>5452013</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="5">
+        <v>0</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="6">
         <v>2692532</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="5">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="6">
         <v>7955739</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="C165" s="5">
+        <v>0</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="4">
         <v>163</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="6">
         <v>5132906</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="C166" s="5">
+        <v>0</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="4">
         <v>164</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="6">
         <v>5090326</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="6">
         <v>3994238</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="5">
+        <v>0</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="6">
         <v>5862415</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="5">
+        <v>0</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="6">
         <v>8062628</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="5">
+        <v>0</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="6">
         <v>8003832</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="C171" s="5">
+        <v>0</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="4">
         <v>169</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="6">
         <v>5252614</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="C172" s="5">
+        <v>0</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="4">
         <v>170</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="6">
         <v>4195869</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="6">
         <v>8535596</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="6">
         <v>8678867</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="C175" s="5">
+        <v>0</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="4">
         <v>173</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="6">
         <v>5982092</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="5">
+        <v>0</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="6">
         <v>7611254</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="5">
+        <v>0</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="6">
         <v>8437753</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="5">
+        <v>0</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="6">
         <v>7890078</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="5">
+        <v>0</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="6">
         <v>3651319</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="5">
+        <v>0</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="6">
         <v>6475001</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="5">
+        <v>0</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="6">
         <v>3149776</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="C182" s="5">
+        <v>0</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4">
         <v>180</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="6">
         <v>5174142</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="5">
+        <v>0</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="6">
         <v>4874684</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="C184" s="5">
+        <v>0</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4">
         <v>182</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="6">
         <v>9471793</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="5">
+        <v>0</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="6">
         <v>7149721</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="5">
+        <v>0</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="6">
         <v>3647226</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="C187" s="5">
+        <v>0</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="4">
         <v>185</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="6">
         <v>9460546</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="6">
         <v>9934058</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="5">
+        <v>0</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="6">
         <v>8721015</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="C190" s="5">
+        <v>0</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="4">
         <v>188</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="6">
         <v>5879786</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="C191" s="5">
+        <v>0</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="4">
         <v>189</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="6">
         <v>5897459</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="5">
+        <v>0</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="6">
         <v>3885491</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="5">
+        <v>0</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="6">
         <v>5907260</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="5">
+        <v>0</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>192</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="6">
         <v>5319117</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="5">
+        <v>0</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>193</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="6">
         <v>6449080</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="5">
+        <v>0</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>194</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="6">
         <v>5819513</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="5">
+        <v>0</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>195</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="6">
         <v>4546568</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="5">
+        <v>0</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>196</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="6">
         <v>6325755</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="C199" s="5">
+        <v>0</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="4">
         <v>197</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="6">
         <v>8598859</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="5">
+        <v>0</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>198</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="6">
         <v>5437339</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" s="5">
+        <v>0</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>199</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="6">
         <v>2563144</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" s="5">
+        <v>0</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>200</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="6">
         <v>2375113</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" s="5">
+        <v>0</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="B204" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A4:F203">
+    <sortCondition ref="A4:A203"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="17">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">jhn wolf, styart guarantee </t>
-  </si>
-  <si>
-    <t>Adam</t>
   </si>
   <si>
     <t>Invalid Number</t>
@@ -441,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,7 +449,7 @@
   <dimension ref="A1:BV204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -485,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:74">
@@ -501,7 +498,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:74">
@@ -517,7 +514,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:74">
@@ -533,7 +530,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:74">
@@ -549,7 +546,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:74">
@@ -565,7 +562,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:74">
@@ -581,7 +578,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:74">
@@ -597,7 +594,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:74">
@@ -613,7 +610,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:74" s="4" customFormat="1">
@@ -629,7 +626,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -797,7 +794,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:74">
@@ -813,7 +810,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:74">
@@ -829,7 +826,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:74">
@@ -845,7 +842,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:74">
@@ -861,7 +858,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:74">
@@ -877,7 +874,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:74">
@@ -893,7 +890,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:74">
@@ -909,7 +906,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:74">
@@ -925,7 +922,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:74">
@@ -941,7 +938,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:74" s="5" customFormat="1">
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:74" s="4" customFormat="1">
@@ -1073,7 +1070,7 @@
         <v>48</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1157,7 +1154,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:74">
@@ -1173,7 +1170,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:74">
@@ -1189,7 +1186,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:74">
@@ -1205,7 +1202,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:74" s="4" customFormat="1">
@@ -1305,7 +1302,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:74">
@@ -1321,7 +1318,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:74" s="4" customFormat="1">
@@ -1589,7 +1586,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:74" s="4" customFormat="1">
@@ -1689,7 +1686,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:74" s="4" customFormat="1">
@@ -1709,7 +1706,7 @@
         <v>71</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1793,7 +1790,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:74">
@@ -1809,7 +1806,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:74">
@@ -1825,7 +1822,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:74" s="4" customFormat="1">
@@ -1925,7 +1922,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:74">
@@ -1941,7 +1938,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:74">
@@ -1957,7 +1954,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:74">
@@ -1973,7 +1970,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:74">
@@ -1989,7 +1986,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:74">
@@ -2005,7 +2002,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:74">
@@ -2021,7 +2018,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:74">
@@ -2037,7 +2034,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:74">
@@ -2053,7 +2050,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:74">
@@ -2069,7 +2066,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:74" s="4" customFormat="1">
@@ -2169,7 +2166,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:74">
@@ -2185,7 +2182,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:74">
@@ -2201,7 +2198,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:74" s="4" customFormat="1">
@@ -2301,7 +2298,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:74">
@@ -2317,7 +2314,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:74">
@@ -2333,7 +2330,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:74">
@@ -2349,7 +2346,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:74">
@@ -2365,7 +2362,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:74">
@@ -2381,7 +2378,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:74" s="4" customFormat="1">
@@ -2485,7 +2482,7 @@
         <v>50</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2569,7 +2566,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:74">
@@ -2585,7 +2582,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:74" s="4" customFormat="1">
@@ -2685,7 +2682,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:74">
@@ -2701,7 +2698,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:74" ht="16.8" customHeight="1">
@@ -2717,7 +2714,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:74" s="4" customFormat="1">
@@ -2901,7 +2898,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:74">
@@ -2917,7 +2914,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:74">
@@ -2933,7 +2930,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:74">
@@ -2949,7 +2946,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:74">
@@ -2965,7 +2962,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:74">
@@ -2981,7 +2978,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:74">
@@ -2997,7 +2994,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:74" s="4" customFormat="1">
@@ -3097,7 +3094,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:74">
@@ -3113,7 +3110,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:74" s="4" customFormat="1">
@@ -3297,7 +3294,7 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:74">
@@ -3313,7 +3310,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:74">
@@ -3329,7 +3326,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:74">
@@ -3345,7 +3342,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:74">
@@ -3361,7 +3358,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:74" s="4" customFormat="1">
@@ -3461,7 +3458,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:74">
@@ -3477,7 +3474,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:74">
@@ -3493,7 +3490,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:74">
@@ -3509,7 +3506,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:74">
@@ -3525,7 +3522,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:74">
@@ -3541,7 +3538,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:74">
@@ -3557,7 +3554,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:74">
@@ -3573,7 +3570,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:74">
@@ -3589,7 +3586,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:74" s="4" customFormat="1">
@@ -3705,7 +3702,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:74">
@@ -3721,7 +3718,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:74">
@@ -3737,7 +3734,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:74">
@@ -3769,7 +3766,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:74">
@@ -3785,7 +3782,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:74">
@@ -3819,7 +3816,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:74">
@@ -3835,7 +3832,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:74">
@@ -3851,7 +3848,7 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:74">
@@ -3867,7 +3864,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:74">
@@ -3883,7 +3880,7 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:74">
@@ -3915,7 +3912,7 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:74">
@@ -3931,7 +3928,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:74">
@@ -3947,7 +3944,7 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:74" s="4" customFormat="1">
@@ -4063,7 +4060,7 @@
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:74">
@@ -4079,7 +4076,7 @@
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:74">
@@ -4095,7 +4092,7 @@
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:74">
@@ -4111,7 +4108,7 @@
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:74">
@@ -4143,7 +4140,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4159,7 +4156,7 @@
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4175,7 +4172,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4191,7 +4188,7 @@
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4207,7 +4204,7 @@
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4239,7 +4236,7 @@
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4271,7 +4268,7 @@
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4287,7 +4284,7 @@
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4303,7 +4300,7 @@
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4319,7 +4316,7 @@
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4351,7 +4348,7 @@
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4367,7 +4364,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4383,7 +4380,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4399,7 +4396,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4415,7 +4412,7 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4431,7 +4428,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4447,7 +4444,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4463,7 +4460,7 @@
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4495,7 +4492,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4543,7 +4540,7 @@
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4559,7 +4556,7 @@
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4591,7 +4588,7 @@
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4607,7 +4604,7 @@
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4623,7 +4620,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4655,7 +4652,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4671,7 +4668,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4687,7 +4684,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4703,7 +4700,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4719,7 +4716,7 @@
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4733,9 +4730,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="5"/>
-      <c r="E166" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="5" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +4764,7 @@
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4785,7 +4780,7 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4801,7 +4796,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4817,7 +4812,7 @@
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4833,7 +4828,7 @@
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4849,7 +4844,7 @@
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4865,7 +4860,7 @@
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4881,7 +4876,7 @@
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4913,7 +4908,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4929,7 +4924,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4945,7 +4940,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4961,7 +4956,7 @@
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4977,7 +4972,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4993,7 +4988,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5025,7 +5020,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5057,7 +5052,7 @@
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5073,7 +5068,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5105,7 +5100,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5121,7 +5116,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5137,7 +5132,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5169,7 +5164,7 @@
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5185,7 +5180,7 @@
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5201,7 +5196,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5217,7 +5212,7 @@
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5233,7 +5228,7 @@
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5249,7 +5244,7 @@
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5265,7 +5260,7 @@
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5297,7 +5292,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5313,7 +5308,7 @@
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5329,7 +5324,7 @@
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:6">
